--- a/UM_I1_I2_plateforme/UMCDF -marchepo.xlsx
+++ b/UM_I1_I2_plateforme/UMCDF -marchepo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\UM_I1_I2_plateforme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3741658A-A75A-40D7-8756-A02FBCD4A7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55208F5C-A466-4292-8512-B83270A013E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,10 +1807,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F16" s="21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G16" s="21">
         <v>0.1</v>
@@ -1880,11 +1880,11 @@
       <c r="D17" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="28">
-        <v>0.1</v>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
       </c>
       <c r="G17" s="28">
         <v>0.5</v>
